--- a/reproduced_papers.xlsx
+++ b/reproduced_papers.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmoho\Documents\FRI\4_letnik_1_semester\SU\Projekt\SU_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F997980E-C224-437D-96F2-0C7DB36F2763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17128404-0E74-43BB-8651-164A2D69732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91E02CD8-FEA7-43F7-A67A-F143381E6EA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{91E02CD8-FEA7-43F7-A67A-F143381E6EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="TRMF" sheetId="1" r:id="rId1"/>
+    <sheet name="DeepAR" sheetId="2" r:id="rId2"/>
+    <sheet name="SCINet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>TRMF</t>
   </si>
@@ -52,6 +54,36 @@
   </si>
   <si>
     <t>Traffic</t>
+  </si>
+  <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>SCINet</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>CORR</t>
   </si>
 </sst>
 </file>
@@ -403,17 +435,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625F2D93-B781-42C0-B4B8-B3CD091F57C4}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.373</v>
+      </c>
+      <c r="D2">
+        <v>0.187</v>
+      </c>
+      <c r="E2">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E3">
+        <v>1.397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.33</v>
+      </c>
+      <c r="D4">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E4">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.443</v>
+      </c>
+      <c r="D5">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.378</v>
+      </c>
+      <c r="D7">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.63</v>
+      </c>
+      <c r="E8">
+        <v>0.247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2695AA4-FE2D-4515-B815-D60588B9E011}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -421,27 +573,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.373</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D2">
-        <v>0.255</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.48699999999999999</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1.397</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -452,25 +604,135 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.33</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D4">
-        <v>0.56200000000000006</v>
+        <v>0.66849999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.98750000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.1976</v>
+      </c>
+      <c r="D7">
+        <v>0.97509999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.20760000000000001</v>
+      </c>
+      <c r="D8">
         <v>0.443</v>
-      </c>
-      <c r="D5">
-        <v>0.94099999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D915FB-85E1-4961-82E0-5BB6EC49BE17}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.4032</v>
+      </c>
+      <c r="F2">
+        <v>4.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="E3">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.95909999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0.40789999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0.91120000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reproduced_papers.xlsx
+++ b/reproduced_papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmoho\Documents\FRI\4_letnik_1_semester\SU\Projekt\SU_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17128404-0E74-43BB-8651-164A2D69732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA713C4B-334E-4482-99CB-E09576E4CAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{91E02CD8-FEA7-43F7-A67A-F143381E6EA8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>TRMF</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>CORR</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,16 +723,34 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="C4">
+        <v>0.1041</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
       <c r="E4">
         <v>0.40789999999999998</v>
+      </c>
+      <c r="F4">
+        <v>5.9499999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="C5">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5">
         <v>0.91120000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.92879999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/reproduced_papers.xlsx
+++ b/reproduced_papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmoho\Documents\FRI\4_letnik_1_semester\SU\Projekt\SU_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA713C4B-334E-4482-99CB-E09576E4CAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A162DBE-DD1F-40DB-85BD-54B319902AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{91E02CD8-FEA7-43F7-A67A-F143381E6EA8}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +733,7 @@
         <v>0.40789999999999998</v>
       </c>
       <c r="F4">
-        <v>5.9499999999999997E-2</v>
+        <v>4.4499999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -750,7 +750,7 @@
         <v>0.91120000000000001</v>
       </c>
       <c r="F5">
-        <v>0.92879999999999996</v>
+        <v>0.92730000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/reproduced_papers.xlsx
+++ b/reproduced_papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmoho\Documents\FRI\4_letnik_1_semester\SU\Projekt\SU_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A162DBE-DD1F-40DB-85BD-54B319902AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F115B0FB-8A05-427D-8F9A-267CC7C4A4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{91E02CD8-FEA7-43F7-A67A-F143381E6EA8}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
